--- a/data/georgia_census/imereti/zestafoni/healthcare_staff.xlsx
+++ b/data/georgia_census/imereti/zestafoni/healthcare_staff.xlsx
@@ -1317,13 +1317,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{053DA244-2BB2-4158-8F00-4CE570D573C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0493526-5926-4D5C-8305-1F9E4A0DEA2D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5940196-421A-4BF2-BBAF-81512DD6CB90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD484ED-DE32-4036-90E0-2F149C74EF2D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4C3CE9B-E944-4913-99B5-F72AD92E1B30}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4190EC09-D6C4-4C6B-8D38-D3F7864640BA}"/>
 </file>